--- a/各类比例预测.xlsx
+++ b/各类比例预测.xlsx
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:V34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -508,43 +508,43 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <f>(B1-B2)/B1</f>
+        <f t="shared" ref="B3:K3" si="0">(B1-B2)/B1</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>(C1-C2)/C1</f>
+        <f t="shared" si="0"/>
         <v>-4.6846424384525982E-3</v>
       </c>
       <c r="D3">
-        <f>(D1-D2)/D1</f>
+        <f t="shared" si="0"/>
         <v>-3.7703841387856214E-2</v>
       </c>
       <c r="E3">
-        <f>(E1-E2)/E1</f>
+        <f t="shared" si="0"/>
         <v>7.4314479638009065E-2</v>
       </c>
       <c r="F3">
-        <f>(F1-F2)/F1</f>
+        <f t="shared" si="0"/>
         <v>2.9663341645884815E-3</v>
       </c>
       <c r="G3">
-        <f>(G1-G2)/G1</f>
+        <f t="shared" si="0"/>
         <v>-5.5895945945946025E-2</v>
       </c>
       <c r="H3">
-        <f>(H1-H2)/H1</f>
+        <f t="shared" si="0"/>
         <v>-3.5985074626865537E-2</v>
       </c>
       <c r="I3">
-        <f>(I1-I2)/I1</f>
+        <f t="shared" si="0"/>
         <v>2.7264667535853982E-2</v>
       </c>
       <c r="J3">
-        <f>(J1-J2)/J1</f>
+        <f t="shared" si="0"/>
         <v>5.9287741935483952E-2</v>
       </c>
       <c r="K3">
-        <f>(K1-K2)/K1</f>
+        <f t="shared" si="0"/>
         <v>-4.7654411764705841E-2</v>
       </c>
     </row>
@@ -782,6 +782,88 @@
       </c>
       <c r="V10">
         <v>12.211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B6+B8</f>
+        <v>6.9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:U12" si="1">C6+C8</f>
+        <v>13.573410000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>13.982860000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>14.42548</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>14.90474</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>15.42441</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>15.988989999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>16.60324</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>17.272349999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>18.002270000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>18.799399999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>19.67118</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>20.625389999999999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>21.671120000000002</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>22.818200000000001</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>24.077500000000001</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>25.461300000000001</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>26.982900000000001</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>28.657299999999999</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>30.501300000000001</v>
       </c>
     </row>
   </sheetData>
